--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_446__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_446__Reeval_LHS_Modell_1.2.xlsx
@@ -5876,7 +5876,7 @@
                   <c:v>44.82265090942383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.29745864868164</c:v>
+                  <c:v>57.29746246337891</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>56.6488151550293</c:v>
@@ -5894,7 +5894,7 @@
                   <c:v>60.76578521728516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63.2914924621582</c:v>
+                  <c:v>63.29150390625</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>60.42716217041016</c:v>
@@ -5951,7 +5951,7 @@
                   <c:v>60.76578521728516</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>48.55093002319336</c:v>
+                  <c:v>48.55093383789062</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>48.33789825439453</c:v>
@@ -5984,7 +5984,7 @@
                   <c:v>44.81370544433594</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>56.08135604858398</c:v>
+                  <c:v>56.08135986328125</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>48.55093383789062</c:v>
@@ -6110,7 +6110,7 @@
                   <c:v>48.55094146728516</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>52.07897567749023</c:v>
+                  <c:v>52.07898330688477</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>48.61285018920898</c:v>
@@ -6891,7 +6891,7 @@
         <v>81.04689999999999</v>
       </c>
       <c r="F3">
-        <v>57.29745864868164</v>
+        <v>57.29746246337891</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -7071,7 +7071,7 @@
         <v>70.2401</v>
       </c>
       <c r="F9">
-        <v>63.2914924621582</v>
+        <v>63.29150390625</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>90.157</v>
       </c>
       <c r="F28">
-        <v>48.55093002319336</v>
+        <v>48.55093383789062</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>95.8798</v>
       </c>
       <c r="F39">
-        <v>56.08135604858398</v>
+        <v>56.08135986328125</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>52.07897567749023</v>
+        <v>52.07898330688477</v>
       </c>
     </row>
     <row r="82" spans="1:6">
